--- a/data/trans_orig/P75_M_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F41ADB53-8BC6-46EA-88E9-1F987D2A438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FB6CCB-B70A-448D-938D-1E65673F4CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34682138-3AE0-41C6-9436-BB244F882D37}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBFF21B3-1C9F-4144-87AE-08FA09ED7FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,21%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -101,43 +101,43 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,42%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
@@ -146,673 +146,661 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>13,91%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6900AD0-8A04-4419-98A6-67F9A5FAC1BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3411DD-9163-413D-9F79-E475746A848C}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1486,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>33</v>
@@ -1522,10 +1510,10 @@
         <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -1534,19 +1522,19 @@
         <v>32802</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>88</v>
@@ -1555,13 +1543,13 @@
         <v>99189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -1570,13 +1558,13 @@
         <v>143842</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -1585,19 +1573,19 @@
         <v>243031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>452</v>
@@ -1606,13 +1594,13 @@
         <v>484529</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>634</v>
@@ -1621,13 +1609,13 @@
         <v>681113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1086</v>
@@ -1636,19 +1624,19 @@
         <v>1165642</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>316</v>
@@ -1657,13 +1645,13 @@
         <v>333871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>434</v>
@@ -1672,13 +1660,13 @@
         <v>462678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>750</v>
@@ -1687,13 +1675,13 @@
         <v>796549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1696,13 @@
         <v>947504</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1219</v>
@@ -1723,13 +1711,13 @@
         <v>1306250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>2102</v>
@@ -1738,18 +1726,18 @@
         <v>2253754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1761,13 +1749,13 @@
         <v>35975</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -1776,13 +1764,13 @@
         <v>22423</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -1791,13 +1779,13 @@
         <v>58398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1800,13 @@
         <v>45191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -1827,13 +1815,13 @@
         <v>32167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -1842,13 +1830,13 @@
         <v>77358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1851,13 @@
         <v>88159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -1878,13 +1866,13 @@
         <v>77273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -1893,13 +1881,13 @@
         <v>165433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1902,13 @@
         <v>332997</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>245</v>
@@ -1929,13 +1917,13 @@
         <v>264871</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>566</v>
@@ -1944,19 +1932,19 @@
         <v>597868</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7">
         <v>533</v>
@@ -1965,13 +1953,13 @@
         <v>570509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>497</v>
@@ -1980,13 +1968,13 @@
         <v>537162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>1030</v>
@@ -1995,19 +1983,19 @@
         <v>1107672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>660</v>
@@ -2016,13 +2004,13 @@
         <v>691029</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>602</v>
@@ -2031,13 +2019,13 @@
         <v>645456</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>1262</v>
@@ -2046,19 +2034,19 @@
         <v>1336485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>146</v>
@@ -2067,13 +2055,13 @@
         <v>159110</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -2082,13 +2070,13 @@
         <v>142685</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -2097,13 +2085,13 @@
         <v>301796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2106,13 @@
         <v>1922971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1602</v>
@@ -2133,13 +2121,13 @@
         <v>1722038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3420</v>
@@ -2148,18 +2136,18 @@
         <v>3645010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2171,10 +2159,10 @@
         <v>24603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>139</v>
@@ -2207,7 +2195,7 @@
         <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2210,13 @@
         <v>41600</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -2237,13 +2225,13 @@
         <v>38120</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -2252,13 +2240,13 @@
         <v>79720</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2261,13 @@
         <v>46782</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2288,13 +2276,13 @@
         <v>40024</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -2303,13 +2291,13 @@
         <v>86806</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2312,13 @@
         <v>123788</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>101</v>
@@ -2339,13 +2327,13 @@
         <v>111323</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -2354,19 +2342,19 @@
         <v>235110</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="7">
         <v>121</v>
@@ -2375,13 +2363,13 @@
         <v>130411</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>111</v>
@@ -2390,13 +2378,13 @@
         <v>121579</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>232</v>
@@ -2405,19 +2393,19 @@
         <v>251990</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>83</v>
@@ -2426,13 +2414,13 @@
         <v>93430</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -2441,13 +2429,13 @@
         <v>92267</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -2456,19 +2444,19 @@
         <v>185697</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -2477,13 +2465,13 @@
         <v>11076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2492,13 +2480,13 @@
         <v>11632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2507,13 +2495,13 @@
         <v>22708</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2516,13 @@
         <v>471690</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>401</v>
@@ -2543,13 +2531,13 @@
         <v>446670</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -2558,13 +2546,13 @@
         <v>918360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2569,13 @@
         <v>61473</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -2596,13 +2584,13 @@
         <v>54148</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2611,13 +2599,13 @@
         <v>115621</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2620,13 @@
         <v>93103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -2647,13 +2635,13 @@
         <v>71378</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>150</v>
@@ -2662,13 +2650,13 @@
         <v>164482</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2671,13 @@
         <v>136040</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -2698,13 +2686,13 @@
         <v>123631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>240</v>
@@ -2713,13 +2701,13 @@
         <v>259671</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2722,13 @@
         <v>478395</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>357</v>
@@ -2749,13 +2737,13 @@
         <v>387386</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>813</v>
@@ -2764,19 +2752,19 @@
         <v>865780</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>742</v>
@@ -2785,13 +2773,13 @@
         <v>800110</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>741</v>
@@ -2800,13 +2788,13 @@
         <v>802583</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>1483</v>
@@ -2815,19 +2803,19 @@
         <v>1602693</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>1195</v>
@@ -2836,13 +2824,13 @@
         <v>1268987</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>1319</v>
@@ -2851,13 +2839,13 @@
         <v>1418837</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M33" s="7">
         <v>2514</v>
@@ -2866,19 +2854,19 @@
         <v>2687824</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>473</v>
@@ -2887,13 +2875,13 @@
         <v>504058</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>580</v>
@@ -2902,13 +2890,13 @@
         <v>616995</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>1053</v>
@@ -2917,13 +2905,13 @@
         <v>1121053</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2926,13 @@
         <v>3342165</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>3222</v>
@@ -2953,13 +2941,13 @@
         <v>3474959</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>6353</v>
@@ -2968,18 +2956,18 @@
         <v>6817124</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_M_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FB6CCB-B70A-448D-938D-1E65673F4CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5B2064-7B53-4BBA-8742-1E67DD1F3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBFF21B3-1C9F-4144-87AE-08FA09ED7FCC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27C8AF3E-CB8A-4B38-84ED-AEC1D7695D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="255">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,2%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -101,13 +101,13 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -116,7 +116,7 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
@@ -125,49 +125,49 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
@@ -176,28 +176,28 @@
     <t>10,47%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
@@ -206,28 +206,28 @@
     <t>51,14%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>No sabía leer o escribir</t>
@@ -236,571 +236,568 @@
     <t>35,24%</t>
   </si>
   <si>
-    <t>32,03%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>40,56%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,91%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1215,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3411DD-9163-413D-9F79-E475746A848C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A888E28-5B4A-43D1-980E-C286CEC01BDA}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1474,10 +1471,10 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,10 +1830,10 @@
         <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,28 +1848,28 @@
         <v>88159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>77273</v>
+        <v>77274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -1881,13 +1878,13 @@
         <v>165433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1899,13 @@
         <v>332997</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7">
         <v>245</v>
@@ -1917,13 +1914,13 @@
         <v>264871</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M15" s="7">
         <v>566</v>
@@ -1932,13 +1929,13 @@
         <v>597868</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1950,13 @@
         <v>570509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>497</v>
@@ -1968,13 +1965,13 @@
         <v>537162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>1030</v>
@@ -1983,13 +1980,13 @@
         <v>1107672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,28 +2001,28 @@
         <v>691029</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>602</v>
       </c>
       <c r="I17" s="7">
-        <v>645456</v>
+        <v>645457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>1262</v>
@@ -2034,13 +2031,13 @@
         <v>1336485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2052,13 @@
         <v>159110</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -2070,13 +2067,13 @@
         <v>142685</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -2085,13 +2082,13 @@
         <v>301796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +2115,7 @@
         <v>1602</v>
       </c>
       <c r="I19" s="7">
-        <v>1722038</v>
+        <v>1722039</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>74</v>
@@ -2147,7 +2144,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2159,13 +2156,13 @@
         <v>24603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -2174,13 +2171,13 @@
         <v>31725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -2189,13 +2186,13 @@
         <v>56327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2207,13 @@
         <v>41600</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -2225,13 +2222,13 @@
         <v>38120</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -2240,13 +2237,13 @@
         <v>79720</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2258,13 @@
         <v>46782</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2276,13 +2273,13 @@
         <v>40024</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -2291,13 +2288,13 @@
         <v>86806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2309,13 @@
         <v>123788</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>101</v>
@@ -2327,13 +2324,13 @@
         <v>111323</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -2342,13 +2339,13 @@
         <v>235110</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2360,13 @@
         <v>130411</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>111</v>
@@ -2393,13 +2390,13 @@
         <v>251990</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2411,13 @@
         <v>93430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -2429,13 +2426,13 @@
         <v>92267</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -2444,13 +2441,13 @@
         <v>185697</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,10 +2465,10 @@
         <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2480,13 +2477,13 @@
         <v>11632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2495,13 +2492,13 @@
         <v>22708</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2566,13 @@
         <v>61473</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -2584,13 +2581,13 @@
         <v>54148</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2605,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2617,13 @@
         <v>93103</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -2635,13 +2632,13 @@
         <v>71378</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>150</v>
@@ -2650,13 +2647,13 @@
         <v>164482</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2668,13 @@
         <v>136040</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -2686,13 +2683,13 @@
         <v>123631</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>240</v>
@@ -2701,13 +2698,13 @@
         <v>259671</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2719,13 @@
         <v>478395</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>357</v>
@@ -2737,13 +2734,13 @@
         <v>387386</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>813</v>
@@ -2752,13 +2749,13 @@
         <v>865780</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2770,13 @@
         <v>800110</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>741</v>
@@ -2788,13 +2785,13 @@
         <v>802583</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>1483</v>
@@ -2803,13 +2800,13 @@
         <v>1602693</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2821,13 @@
         <v>1268987</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>1319</v>
@@ -2839,13 +2836,13 @@
         <v>1418837</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M33" s="7">
         <v>2514</v>
@@ -2854,13 +2851,13 @@
         <v>2687824</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2872,13 @@
         <v>504058</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>580</v>
@@ -2890,13 +2887,13 @@
         <v>616995</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>1053</v>
@@ -2905,13 +2902,13 @@
         <v>1121053</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +2964,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
